--- a/1/О23.02.17.Xlsx
+++ b/1/О23.02.17.Xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="284">
   <si>
     <t>Назва Клієнта</t>
   </si>
@@ -776,9 +776,6 @@
     <t>rah=0096015;ot=1566,24;</t>
   </si>
   <si>
-    <t>rah=0096066   ;sn=115,77;</t>
-  </si>
-  <si>
     <t>rah=0098003;om=1068;</t>
   </si>
   <si>
@@ -791,16 +788,19 @@
     <t>rah=0066036;ot=1500;</t>
   </si>
   <si>
-    <t>rah=0064060;om=377,05;</t>
-  </si>
-  <si>
-    <t>rah=0100005;ot=2100;</t>
+    <t>rah=0064060;om=362,25;op=14,8;</t>
+  </si>
+  <si>
+    <t>rah=0100005;ot=2083,86;op=16,14;</t>
   </si>
   <si>
     <t>rah=9006032;ot=931;</t>
   </si>
   <si>
-    <t>rah=0506102;om=270;</t>
+    <t>rah=0506102;om=264,33;</t>
+  </si>
+  <si>
+    <t>rah=9155057;ot=1332,04;op=14,56;</t>
   </si>
   <si>
     <t>rah=0305020;ot=2386,21;</t>
@@ -809,7 +809,7 @@
     <t>rah=9155113;ot=1026,9;op=202,64;</t>
   </si>
   <si>
-    <t>rah=0106056;ot=942;</t>
+    <t>rah=0106056;ot=941,28;op=0,72;</t>
   </si>
   <si>
     <t>rah=0076013;ot=1848,3;</t>
@@ -842,7 +842,7 @@
     <t>rah=0062047;ot=2771,09;</t>
   </si>
   <si>
-    <t>rah=0080079;ot=1620,99;op=0,01;</t>
+    <t>rah=0080079;ot=1621;</t>
   </si>
   <si>
     <t>rah=0098074;ot=1665;</t>
@@ -1395,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1418,20 +1418,21 @@
     <col min="13" max="13" width="2.83203125" customWidth="1"/>
     <col min="14" max="14" width="0.33203125" customWidth="1"/>
     <col min="15" max="15" width="33.33203125" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.33203125" customWidth="1"/>
     <col min="18" max="18" width="20.6640625" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.33203125" customWidth="1"/>
     <col min="21" max="21" width="25.1640625" customWidth="1"/>
     <col min="22" max="22" width="1.5" customWidth="1"/>
-    <col min="23" max="23" width="18.6640625" customWidth="1"/>
+    <col min="23" max="23" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="0.1640625" customWidth="1"/>
-    <col min="25" max="25" width="28.33203125" customWidth="1"/>
-    <col min="26" max="26" width="16.83203125" customWidth="1"/>
+    <col min="25" max="25" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1464,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1482,7 +1483,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1506,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1529,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1551,7 +1552,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1574,7 +1575,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1597,7 +1598,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1620,12 +1621,12 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="27.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" ht="27.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W9">
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -1643,8 +1644,8 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:26" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:27" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -1789,8 +1790,11 @@
       <c r="Z14" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA14">
+        <v>1566.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1836,7 +1840,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>47</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>53</v>
       </c>
@@ -1928,7 +1932,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>55</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>61</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>67</v>
       </c>
@@ -2062,8 +2066,11 @@
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
-    </row>
-    <row r="21" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>70</v>
       </c>
@@ -2109,7 +2116,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>73</v>
       </c>
@@ -2155,7 +2162,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>76</v>
       </c>
@@ -2201,7 +2208,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>79</v>
       </c>
@@ -2247,14 +2254,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W26" s="13" t="s">
         <v>82</v>
       </c>
       <c r="X26" s="13"/>
     </row>
-    <row r="27" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>83</v>
       </c>
@@ -2296,14 +2303,11 @@
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
-      <c r="Y27" t="s">
-        <v>253</v>
-      </c>
       <c r="Z27" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>90</v>
       </c>
@@ -2349,7 +2353,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>92</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>94</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>96</v>
       </c>
@@ -2484,13 +2488,16 @@
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z31" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA31">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>102</v>
       </c>
@@ -2533,13 +2540,16 @@
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
       <c r="Y32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z32" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA32">
+        <v>1713.47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>108</v>
       </c>
@@ -2582,13 +2592,16 @@
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="Y33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z33" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA33">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>112</v>
       </c>
@@ -2631,13 +2644,16 @@
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="Y34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z34" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA34">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>118</v>
       </c>
@@ -2680,13 +2696,16 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="Y35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z35" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA35">
+        <v>377.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>124</v>
       </c>
@@ -2729,13 +2748,16 @@
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="Y36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z36" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA36">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>127</v>
       </c>
@@ -2778,13 +2800,16 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="Y37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Z37" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA37">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>131</v>
       </c>
@@ -2827,13 +2852,16 @@
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
       <c r="Y38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z38" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA38">
+        <v>264.33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>134</v>
       </c>
@@ -2875,11 +2903,17 @@
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
+      <c r="Y39" t="s">
+        <v>261</v>
+      </c>
       <c r="Z39" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA39">
+        <v>1346.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>137</v>
       </c>
@@ -2927,8 +2961,11 @@
       <c r="Z40" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA40">
+        <v>2386.21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>140</v>
       </c>
@@ -2976,8 +3013,11 @@
       <c r="Z41" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA41">
+        <v>1229.54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>143</v>
       </c>
@@ -3025,15 +3065,18 @@
       <c r="Z42" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA42">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W44" s="13" t="s">
         <v>149</v>
       </c>
       <c r="X44" s="13"/>
     </row>
-    <row r="45" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>150</v>
       </c>
@@ -3081,8 +3124,11 @@
       <c r="Z45" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA45">
+        <v>1848.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>153</v>
       </c>
@@ -3130,8 +3176,11 @@
       <c r="Z46" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA46">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>156</v>
       </c>
@@ -3177,7 +3226,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>162</v>
       </c>
@@ -3225,8 +3274,11 @@
       <c r="Z48" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA48">
+        <v>977.18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>165</v>
       </c>
@@ -3274,8 +3326,11 @@
       <c r="Z49" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA49">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>168</v>
       </c>
@@ -3323,8 +3378,11 @@
       <c r="Z50" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA50">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>171</v>
       </c>
@@ -3372,8 +3430,11 @@
       <c r="Z51" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>174</v>
       </c>
@@ -3421,8 +3482,11 @@
       <c r="Z52" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA52">
+        <v>2219.8000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>177</v>
       </c>
@@ -3470,8 +3534,11 @@
       <c r="Z53" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA53">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>180</v>
       </c>
@@ -3517,7 +3584,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>183</v>
       </c>
@@ -3565,8 +3632,11 @@
       <c r="Z55" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA55">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>186</v>
       </c>
@@ -3614,8 +3684,11 @@
       <c r="Z56" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA56">
+        <v>2771.09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>189</v>
       </c>
@@ -3663,8 +3736,11 @@
       <c r="Z57" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA57">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>192</v>
       </c>
@@ -3712,8 +3788,11 @@
       <c r="Z58" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA58">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>195</v>
       </c>
@@ -3761,8 +3840,11 @@
       <c r="Z59" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA59">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>201</v>
       </c>
@@ -3808,14 +3890,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W62" s="13" t="s">
         <v>204</v>
       </c>
       <c r="X62" s="13"/>
     </row>
-    <row r="63" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>205</v>
       </c>
@@ -3863,8 +3945,11 @@
       <c r="Z63" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>211</v>
       </c>
@@ -3912,8 +3997,11 @@
       <c r="Z64" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA64">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>218</v>
       </c>
@@ -3961,8 +4049,11 @@
       <c r="Z65" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA65">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>224</v>
       </c>
@@ -4010,8 +4101,11 @@
       <c r="Z66" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA66">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>231</v>
       </c>
@@ -4059,8 +4153,11 @@
       <c r="Z67" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA67">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>235</v>
       </c>
@@ -4108,8 +4205,11 @@
       <c r="Z68" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA68">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>241</v>
       </c>
@@ -4155,16 +4255,16 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
     </row>
-    <row r="71" spans="1:26" ht="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="U72" s="14"/>
     </row>
-    <row r="73" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="8" t="s">
         <v>246</v>
       </c>
@@ -4186,7 +4286,7 @@
       <c r="N73" s="9"/>
       <c r="U73" s="14"/>
     </row>
-    <row r="74" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="8" t="s">
         <v>247</v>
       </c>
@@ -4206,11 +4306,11 @@
       <c r="N74" s="8"/>
       <c r="U74" s="14"/>
     </row>
-    <row r="75" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="U75" s="14"/>
     </row>
-    <row r="76" spans="1:26" ht="266.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:27" ht="266.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W77" s="13" t="s">
         <v>248</v>
       </c>

--- a/1/О23.02.17.Xlsx
+++ b/1/О23.02.17.Xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="284">
   <si>
     <t>Назва Клієнта</t>
   </si>
@@ -788,9 +788,6 @@
     <t>rah=0066036;ot=1500;</t>
   </si>
   <si>
-    <t>rah=0064060;om=362,25;op=14,8;</t>
-  </si>
-  <si>
     <t>rah=0100005;ot=2083,86;op=16,14;</t>
   </si>
   <si>
@@ -809,9 +806,6 @@
     <t>rah=9155113;ot=1026,9;op=202,64;</t>
   </si>
   <si>
-    <t>rah=0106056;ot=941,28;op=0,72;</t>
-  </si>
-  <si>
     <t>rah=0076013;ot=1848,3;</t>
   </si>
   <si>
@@ -867,6 +861,12 @@
   </si>
   <si>
     <t>rah=0030040;ot=2220;</t>
+  </si>
+  <si>
+    <t>rah=0064060;om=377,05;</t>
+  </si>
+  <si>
+    <t>rah=0106056;ot=942;</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AB77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
@@ -1430,9 +1430,10 @@
     <col min="25" max="25" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1465,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:27" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1483,7 +1484,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1506,7 +1507,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1529,7 +1530,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1552,7 +1553,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1575,7 +1576,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1598,7 +1599,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1621,12 +1622,12 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="27.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="27.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W9">
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -1644,8 +1645,8 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:27" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:28" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1695,8 +1696,11 @@
       <c r="Z12" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
@@ -1741,8 +1745,11 @@
       <c r="Z13" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -1794,7 +1801,7 @@
         <v>1566.24</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1839,8 +1846,11 @@
       <c r="Z15" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>47</v>
       </c>
@@ -1885,8 +1895,11 @@
       <c r="Z16" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>53</v>
       </c>
@@ -1931,8 +1944,11 @@
       <c r="Z17" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>55</v>
       </c>
@@ -1977,8 +1993,11 @@
       <c r="Z18" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>61</v>
       </c>
@@ -2023,8 +2042,11 @@
       <c r="Z19" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>67</v>
       </c>
@@ -2069,8 +2091,11 @@
       <c r="Z20" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>70</v>
       </c>
@@ -2115,8 +2140,11 @@
       <c r="Z21" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>73</v>
       </c>
@@ -2161,8 +2189,11 @@
       <c r="Z22" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>76</v>
       </c>
@@ -2207,8 +2238,11 @@
       <c r="Z23" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>79</v>
       </c>
@@ -2253,15 +2287,18 @@
       <c r="Z24" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W26" s="13" t="s">
         <v>82</v>
       </c>
       <c r="X26" s="13"/>
     </row>
-    <row r="27" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>83</v>
       </c>
@@ -2307,7 +2344,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>90</v>
       </c>
@@ -2352,8 +2389,11 @@
       <c r="Z28" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>92</v>
       </c>
@@ -2398,8 +2438,11 @@
       <c r="Z29" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>94</v>
       </c>
@@ -2444,8 +2487,11 @@
       <c r="Z30" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>96</v>
       </c>
@@ -2497,7 +2543,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>102</v>
       </c>
@@ -2549,7 +2595,7 @@
         <v>1713.47</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>108</v>
       </c>
@@ -2601,7 +2647,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>112</v>
       </c>
@@ -2653,7 +2699,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>118</v>
       </c>
@@ -2696,7 +2742,7 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="Y35" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Z35" t="s">
         <v>251</v>
@@ -2705,7 +2751,7 @@
         <v>377.05</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>124</v>
       </c>
@@ -2748,7 +2794,7 @@
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="Y36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z36" t="s">
         <v>251</v>
@@ -2757,7 +2803,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>127</v>
       </c>
@@ -2800,7 +2846,7 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="Y37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z37" t="s">
         <v>251</v>
@@ -2809,7 +2855,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>131</v>
       </c>
@@ -2852,7 +2898,7 @@
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
       <c r="Y38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Z38" t="s">
         <v>251</v>
@@ -2861,7 +2907,7 @@
         <v>264.33</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>134</v>
       </c>
@@ -2904,7 +2950,7 @@
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
       <c r="Y39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z39" t="s">
         <v>251</v>
@@ -2913,7 +2959,7 @@
         <v>1346.6</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>137</v>
       </c>
@@ -2956,7 +3002,7 @@
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="Y40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z40" t="s">
         <v>251</v>
@@ -2965,7 +3011,7 @@
         <v>2386.21</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>140</v>
       </c>
@@ -3008,7 +3054,7 @@
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
       <c r="Y41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Z41" t="s">
         <v>251</v>
@@ -3017,7 +3063,7 @@
         <v>1229.54</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>143</v>
       </c>
@@ -3060,7 +3106,7 @@
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
       <c r="Y42" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="Z42" t="s">
         <v>251</v>
@@ -3069,14 +3115,14 @@
         <v>942</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W44" s="13" t="s">
         <v>149</v>
       </c>
       <c r="X44" s="13"/>
     </row>
-    <row r="45" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>150</v>
       </c>
@@ -3119,7 +3165,7 @@
       <c r="V45" s="12"/>
       <c r="W45" s="12"/>
       <c r="Y45" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Z45" t="s">
         <v>251</v>
@@ -3128,7 +3174,7 @@
         <v>1848.3</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>153</v>
       </c>
@@ -3171,7 +3217,7 @@
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
       <c r="Y46" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z46" t="s">
         <v>251</v>
@@ -3180,7 +3226,7 @@
         <v>43.68</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>156</v>
       </c>
@@ -3225,8 +3271,11 @@
       <c r="Z47" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>162</v>
       </c>
@@ -3269,7 +3318,7 @@
       <c r="V48" s="12"/>
       <c r="W48" s="12"/>
       <c r="Y48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Z48" t="s">
         <v>251</v>
@@ -3278,7 +3327,7 @@
         <v>977.18</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>165</v>
       </c>
@@ -3321,7 +3370,7 @@
       <c r="V49" s="12"/>
       <c r="W49" s="12"/>
       <c r="Y49" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Z49" t="s">
         <v>251</v>
@@ -3330,7 +3379,7 @@
         <v>43.68</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>168</v>
       </c>
@@ -3373,7 +3422,7 @@
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
       <c r="Y50" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Z50" t="s">
         <v>251</v>
@@ -3382,7 +3431,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>171</v>
       </c>
@@ -3425,7 +3474,7 @@
       <c r="V51" s="12"/>
       <c r="W51" s="12"/>
       <c r="Y51" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Z51" t="s">
         <v>251</v>
@@ -3434,7 +3483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>174</v>
       </c>
@@ -3477,7 +3526,7 @@
       <c r="V52" s="12"/>
       <c r="W52" s="12"/>
       <c r="Y52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Z52" t="s">
         <v>251</v>
@@ -3486,7 +3535,7 @@
         <v>2219.8000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>177</v>
       </c>
@@ -3529,7 +3578,7 @@
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
       <c r="Y53" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Z53" t="s">
         <v>251</v>
@@ -3538,7 +3587,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>180</v>
       </c>
@@ -3580,11 +3629,8 @@
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
-      <c r="Z54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>183</v>
       </c>
@@ -3627,16 +3673,13 @@
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
       <c r="Y55" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="AA55">
         <v>2500</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>186</v>
       </c>
@@ -3679,16 +3722,13 @@
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
       <c r="Y56" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="AA56">
         <v>2771.09</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>189</v>
       </c>
@@ -3731,16 +3771,13 @@
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
       <c r="Y57" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="AA57">
         <v>1621</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>192</v>
       </c>
@@ -3783,16 +3820,13 @@
       <c r="V58" s="12"/>
       <c r="W58" s="12"/>
       <c r="Y58" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="AA58">
         <v>1665</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>195</v>
       </c>
@@ -3835,16 +3869,13 @@
       <c r="V59" s="12"/>
       <c r="W59" s="12"/>
       <c r="Y59" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="AA59">
         <v>1794</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>201</v>
       </c>
@@ -3889,15 +3920,18 @@
       <c r="Z60" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W62" s="13" t="s">
         <v>204</v>
       </c>
       <c r="X62" s="13"/>
     </row>
-    <row r="63" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>205</v>
       </c>
@@ -3940,16 +3974,13 @@
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
       <c r="Y63" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="AA63">
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>211</v>
       </c>
@@ -3992,16 +4023,13 @@
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
       <c r="Y64" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="AA64">
         <v>784</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>218</v>
       </c>
@@ -4044,16 +4072,13 @@
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
       <c r="Y65" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="AA65">
         <v>2247</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>224</v>
       </c>
@@ -4096,16 +4121,13 @@
       <c r="V66" s="12"/>
       <c r="W66" s="12"/>
       <c r="Y66" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="AA66">
         <v>888</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>231</v>
       </c>
@@ -4148,16 +4170,13 @@
       <c r="V67" s="12"/>
       <c r="W67" s="12"/>
       <c r="Y67" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="AA67">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>235</v>
       </c>
@@ -4200,16 +4219,13 @@
       <c r="V68" s="12"/>
       <c r="W68" s="12"/>
       <c r="Y68" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="AA68">
         <v>2220</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>241</v>
       </c>
@@ -4254,17 +4270,20 @@
       <c r="Z69" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB69" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
     </row>
-    <row r="71" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:28" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="U72" s="14"/>
     </row>
-    <row r="73" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="8" t="s">
         <v>246</v>
       </c>
@@ -4286,7 +4305,7 @@
       <c r="N73" s="9"/>
       <c r="U73" s="14"/>
     </row>
-    <row r="74" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="8" t="s">
         <v>247</v>
       </c>
@@ -4306,11 +4325,11 @@
       <c r="N74" s="8"/>
       <c r="U74" s="14"/>
     </row>
-    <row r="75" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="U75" s="14"/>
     </row>
-    <row r="76" spans="1:27" ht="266.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:28" ht="266.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W77" s="13" t="s">
         <v>248</v>
       </c>

--- a/1/О23.02.17.Xlsx
+++ b/1/О23.02.17.Xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="284">
   <si>
     <t>Назва Клієнта</t>
   </si>
@@ -830,9 +830,6 @@
     <t>rah=0100047;ot=1595;</t>
   </si>
   <si>
-    <t>rah=0052048;ot=2485,2;op=14,8;</t>
-  </si>
-  <si>
     <t>rah=0062047;ot=2771,09;</t>
   </si>
   <si>
@@ -842,18 +839,9 @@
     <t>rah=0098074;ot=1665;</t>
   </si>
   <si>
-    <t>rah=9048098;ot=1654,22;op=139,78;</t>
-  </si>
-  <si>
     <t>rah=9048102;ot=1000;</t>
   </si>
   <si>
-    <t>rah=9006162;ot=771,36;op=12,64;</t>
-  </si>
-  <si>
-    <t>rah=0070029;ot=2232,37;op=14,63;</t>
-  </si>
-  <si>
     <t>rah=0506026;ot=888;</t>
   </si>
   <si>
@@ -867,6 +855,18 @@
   </si>
   <si>
     <t>rah=0106056;ot=942;</t>
+  </si>
+  <si>
+    <t>rah=0052048;ot=2500;</t>
+  </si>
+  <si>
+    <t>rah=9048098;ot=1794;</t>
+  </si>
+  <si>
+    <t>rah=9006162;ot=784;</t>
+  </si>
+  <si>
+    <t>rah=0070029;ot=2247;</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1398,7 @@
   <dimension ref="A1:AB77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1427,7 +1427,7 @@
     <col min="22" max="22" width="1.5" customWidth="1"/>
     <col min="23" max="23" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="0.1640625" customWidth="1"/>
-    <col min="25" max="25" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -1794,9 +1794,6 @@
       <c r="Y14" t="s">
         <v>252</v>
       </c>
-      <c r="Z14" t="s">
-        <v>251</v>
-      </c>
       <c r="AA14">
         <v>1566.24</v>
       </c>
@@ -2340,9 +2337,6 @@
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
-      <c r="Z27" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="28" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
@@ -2536,9 +2530,6 @@
       <c r="Y31" t="s">
         <v>253</v>
       </c>
-      <c r="Z31" t="s">
-        <v>251</v>
-      </c>
       <c r="AA31">
         <v>1068</v>
       </c>
@@ -2588,9 +2579,6 @@
       <c r="Y32" t="s">
         <v>254</v>
       </c>
-      <c r="Z32" t="s">
-        <v>251</v>
-      </c>
       <c r="AA32">
         <v>1713.47</v>
       </c>
@@ -2640,9 +2628,6 @@
       <c r="Y33" t="s">
         <v>255</v>
       </c>
-      <c r="Z33" t="s">
-        <v>251</v>
-      </c>
       <c r="AA33">
         <v>29.12</v>
       </c>
@@ -2692,9 +2677,6 @@
       <c r="Y34" t="s">
         <v>256</v>
       </c>
-      <c r="Z34" t="s">
-        <v>251</v>
-      </c>
       <c r="AA34">
         <v>1500</v>
       </c>
@@ -2742,10 +2724,7 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="Y35" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="AA35">
         <v>377.05</v>
@@ -2796,9 +2775,6 @@
       <c r="Y36" t="s">
         <v>257</v>
       </c>
-      <c r="Z36" t="s">
-        <v>251</v>
-      </c>
       <c r="AA36">
         <v>2100</v>
       </c>
@@ -2848,9 +2824,6 @@
       <c r="Y37" t="s">
         <v>258</v>
       </c>
-      <c r="Z37" t="s">
-        <v>251</v>
-      </c>
       <c r="AA37">
         <v>931</v>
       </c>
@@ -2900,9 +2873,6 @@
       <c r="Y38" t="s">
         <v>259</v>
       </c>
-      <c r="Z38" t="s">
-        <v>251</v>
-      </c>
       <c r="AA38">
         <v>264.33</v>
       </c>
@@ -2952,9 +2922,6 @@
       <c r="Y39" t="s">
         <v>260</v>
       </c>
-      <c r="Z39" t="s">
-        <v>251</v>
-      </c>
       <c r="AA39">
         <v>1346.6</v>
       </c>
@@ -3004,9 +2971,6 @@
       <c r="Y40" t="s">
         <v>261</v>
       </c>
-      <c r="Z40" t="s">
-        <v>251</v>
-      </c>
       <c r="AA40">
         <v>2386.21</v>
       </c>
@@ -3056,9 +3020,6 @@
       <c r="Y41" t="s">
         <v>262</v>
       </c>
-      <c r="Z41" t="s">
-        <v>251</v>
-      </c>
       <c r="AA41">
         <v>1229.54</v>
       </c>
@@ -3106,10 +3067,7 @@
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
       <c r="Y42" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="AA42">
         <v>942</v>
@@ -3167,9 +3125,6 @@
       <c r="Y45" t="s">
         <v>263</v>
       </c>
-      <c r="Z45" t="s">
-        <v>251</v>
-      </c>
       <c r="AA45">
         <v>1848.3</v>
       </c>
@@ -3219,9 +3174,6 @@
       <c r="Y46" t="s">
         <v>264</v>
       </c>
-      <c r="Z46" t="s">
-        <v>251</v>
-      </c>
       <c r="AA46">
         <v>43.68</v>
       </c>
@@ -3320,9 +3272,6 @@
       <c r="Y48" t="s">
         <v>265</v>
       </c>
-      <c r="Z48" t="s">
-        <v>251</v>
-      </c>
       <c r="AA48">
         <v>977.18</v>
       </c>
@@ -3372,9 +3321,6 @@
       <c r="Y49" t="s">
         <v>266</v>
       </c>
-      <c r="Z49" t="s">
-        <v>251</v>
-      </c>
       <c r="AA49">
         <v>43.68</v>
       </c>
@@ -3424,9 +3370,6 @@
       <c r="Y50" t="s">
         <v>267</v>
       </c>
-      <c r="Z50" t="s">
-        <v>251</v>
-      </c>
       <c r="AA50">
         <v>1872</v>
       </c>
@@ -3476,9 +3419,6 @@
       <c r="Y51" t="s">
         <v>268</v>
       </c>
-      <c r="Z51" t="s">
-        <v>251</v>
-      </c>
       <c r="AA51">
         <v>15</v>
       </c>
@@ -3528,9 +3468,6 @@
       <c r="Y52" t="s">
         <v>269</v>
       </c>
-      <c r="Z52" t="s">
-        <v>251</v>
-      </c>
       <c r="AA52">
         <v>2219.8000000000002</v>
       </c>
@@ -3580,9 +3517,6 @@
       <c r="Y53" t="s">
         <v>270</v>
       </c>
-      <c r="Z53" t="s">
-        <v>251</v>
-      </c>
       <c r="AA53">
         <v>1595</v>
       </c>
@@ -3673,7 +3607,7 @@
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
       <c r="Y55" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="AA55">
         <v>2500</v>
@@ -3722,7 +3656,7 @@
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
       <c r="Y56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AA56">
         <v>2771.09</v>
@@ -3771,7 +3705,7 @@
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
       <c r="Y57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AA57">
         <v>1621</v>
@@ -3820,7 +3754,7 @@
       <c r="V58" s="12"/>
       <c r="W58" s="12"/>
       <c r="Y58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA58">
         <v>1665</v>
@@ -3869,7 +3803,7 @@
       <c r="V59" s="12"/>
       <c r="W59" s="12"/>
       <c r="Y59" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AA59">
         <v>1794</v>
@@ -3974,7 +3908,7 @@
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
       <c r="Y63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AA63">
         <v>1000</v>
@@ -4023,7 +3957,7 @@
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
       <c r="Y64" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AA64">
         <v>784</v>
@@ -4072,7 +4006,7 @@
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
       <c r="Y65" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AA65">
         <v>2247</v>
@@ -4121,7 +4055,7 @@
       <c r="V66" s="12"/>
       <c r="W66" s="12"/>
       <c r="Y66" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AA66">
         <v>888</v>
@@ -4170,7 +4104,7 @@
       <c r="V67" s="12"/>
       <c r="W67" s="12"/>
       <c r="Y67" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AA67">
         <v>44</v>
@@ -4219,7 +4153,7 @@
       <c r="V68" s="12"/>
       <c r="W68" s="12"/>
       <c r="Y68" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AA68">
         <v>2220</v>

--- a/1/О23.02.17.Xlsx
+++ b/1/О23.02.17.Xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="286">
   <si>
     <t>Назва Клієнта</t>
   </si>
@@ -764,109 +764,115 @@
     <t>сторінка 4</t>
   </si>
   <si>
-    <t>Параметри обробки</t>
-  </si>
-  <si>
     <t>Результат обробки</t>
   </si>
   <si>
     <t>Оброблено</t>
   </si>
   <si>
-    <t>rah=0096015;ot=1566,24;</t>
-  </si>
-  <si>
-    <t>rah=0098003;om=1068;</t>
-  </si>
-  <si>
-    <t>rah=0096039;ot=1713,47;</t>
-  </si>
-  <si>
-    <t>rah=0096039;op=29,12;</t>
-  </si>
-  <si>
-    <t>rah=0066036;ot=1500;</t>
-  </si>
-  <si>
-    <t>rah=0100005;ot=2083,86;op=16,14;</t>
-  </si>
-  <si>
-    <t>rah=9006032;ot=931;</t>
-  </si>
-  <si>
-    <t>rah=0506102;om=264,33;</t>
-  </si>
-  <si>
-    <t>rah=9155057;ot=1332,04;op=14,56;</t>
-  </si>
-  <si>
-    <t>rah=0305020;ot=2386,21;</t>
-  </si>
-  <si>
-    <t>rah=9155113;ot=1026,9;op=202,64;</t>
-  </si>
-  <si>
-    <t>rah=0076013;ot=1848,3;</t>
-  </si>
-  <si>
-    <t>rah=0062047;op=43,68;</t>
-  </si>
-  <si>
-    <t>rah=0100013;ot=977,18;</t>
-  </si>
-  <si>
-    <t>rah=0100013;op=43,68;</t>
-  </si>
-  <si>
-    <t>rah=0066006;ot=1858,12;op=13,88;</t>
-  </si>
-  <si>
-    <t>rah=0106056;op=15;</t>
-  </si>
-  <si>
-    <t>rah=0070072;ot=2205,24;op=14,56;</t>
-  </si>
-  <si>
-    <t>rah=0100047;ot=1595;</t>
-  </si>
-  <si>
-    <t>rah=0062047;ot=2771,09;</t>
-  </si>
-  <si>
-    <t>rah=0080079;ot=1621;</t>
-  </si>
-  <si>
-    <t>rah=0098074;ot=1665;</t>
-  </si>
-  <si>
-    <t>rah=9048102;ot=1000;</t>
-  </si>
-  <si>
-    <t>rah=0506026;ot=888;</t>
-  </si>
-  <si>
-    <t>rah=0506026;op=44;</t>
-  </si>
-  <si>
-    <t>rah=0030040;ot=2220;</t>
-  </si>
-  <si>
-    <t>rah=0064060;om=377,05;</t>
-  </si>
-  <si>
-    <t>rah=0106056;ot=942;</t>
-  </si>
-  <si>
-    <t>rah=0052048;ot=2500;</t>
-  </si>
-  <si>
-    <t>rah=9048098;ot=1794;</t>
-  </si>
-  <si>
-    <t>rah=9006162;ot=784;</t>
-  </si>
-  <si>
-    <t>rah=0070029;ot=2247;</t>
+    <t>Ос.рахунок</t>
+  </si>
+  <si>
+    <t>Сума оплати з %</t>
+  </si>
+  <si>
+    <t>Послуга 1</t>
+  </si>
+  <si>
+    <t>Сума 1</t>
+  </si>
+  <si>
+    <t>Послуга 2</t>
+  </si>
+  <si>
+    <t>Сума 2</t>
+  </si>
+  <si>
+    <t>0096015</t>
+  </si>
+  <si>
+    <t>Опалення</t>
+  </si>
+  <si>
+    <t>0098003</t>
+  </si>
+  <si>
+    <t>Опал.мiсц.заг.к</t>
+  </si>
+  <si>
+    <t>0096039</t>
+  </si>
+  <si>
+    <t>Аб.плата(тепло)</t>
+  </si>
+  <si>
+    <t>0066036</t>
+  </si>
+  <si>
+    <t>0064060</t>
+  </si>
+  <si>
+    <t>0100005</t>
+  </si>
+  <si>
+    <t>9006032</t>
+  </si>
+  <si>
+    <t>9155057</t>
+  </si>
+  <si>
+    <t>0305020</t>
+  </si>
+  <si>
+    <t>9155113</t>
+  </si>
+  <si>
+    <t>0106056</t>
+  </si>
+  <si>
+    <t>0076013</t>
+  </si>
+  <si>
+    <t>0062047</t>
+  </si>
+  <si>
+    <t>0100013</t>
+  </si>
+  <si>
+    <t>0066006</t>
+  </si>
+  <si>
+    <t>0070072</t>
+  </si>
+  <si>
+    <t>0100047</t>
+  </si>
+  <si>
+    <t>0052048</t>
+  </si>
+  <si>
+    <t>0080079</t>
+  </si>
+  <si>
+    <t>0098074</t>
+  </si>
+  <si>
+    <t>9048098</t>
+  </si>
+  <si>
+    <t>9048102</t>
+  </si>
+  <si>
+    <t>9006162</t>
+  </si>
+  <si>
+    <t>0070029</t>
+  </si>
+  <si>
+    <t>0506026</t>
+  </si>
+  <si>
+    <t>0030040</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1043,6 +1049,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1395,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB77"/>
+  <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1427,13 +1435,16 @@
     <col min="22" max="22" width="1.5" customWidth="1"/>
     <col min="23" max="23" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="0.1640625" customWidth="1"/>
-    <col min="25" max="25" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1476,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:28" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1484,7 +1495,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1507,7 +1518,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1530,7 +1541,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1553,7 +1564,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1576,7 +1587,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1599,7 +1610,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1622,12 +1633,12 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:28" ht="27.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:31" ht="27.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W9">
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -1645,8 +1656,8 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:28" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:28" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:31" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1693,14 +1704,26 @@
       <c r="Y12" t="s">
         <v>249</v>
       </c>
-      <c r="Z12" t="s">
-        <v>250</v>
+      <c r="Z12" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="AB12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
@@ -1742,14 +1765,11 @@
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
-      <c r="Z13" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -1792,13 +1812,22 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="Y14" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA14">
+        <v>250</v>
+      </c>
+      <c r="Z14" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA14" s="16">
         <v>1566.24</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB14" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>1566.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1840,14 +1869,11 @@
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
-      <c r="Z15" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>47</v>
       </c>
@@ -1889,14 +1915,11 @@
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="Z16" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>53</v>
       </c>
@@ -1938,14 +1961,11 @@
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="Z17" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>55</v>
       </c>
@@ -1987,14 +2007,11 @@
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
-      <c r="Z18" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>61</v>
       </c>
@@ -2036,14 +2053,11 @@
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
-      <c r="Z19" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>67</v>
       </c>
@@ -2085,14 +2099,11 @@
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
-      <c r="Z20" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>70</v>
       </c>
@@ -2134,14 +2145,11 @@
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
-      <c r="Z21" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>73</v>
       </c>
@@ -2183,14 +2191,11 @@
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
-      <c r="Z22" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>76</v>
       </c>
@@ -2232,14 +2237,11 @@
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
-      <c r="Z23" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>79</v>
       </c>
@@ -2281,21 +2283,18 @@
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
-      <c r="Z24" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W26" s="13" t="s">
         <v>82</v>
       </c>
       <c r="X26" s="13"/>
     </row>
-    <row r="27" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>83</v>
       </c>
@@ -2337,8 +2336,11 @@
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
-    </row>
-    <row r="28" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>90</v>
       </c>
@@ -2380,14 +2382,11 @@
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
-      <c r="Z28" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>92</v>
       </c>
@@ -2429,14 +2428,11 @@
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
-      <c r="Z29" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>94</v>
       </c>
@@ -2478,14 +2474,11 @@
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
-      <c r="Z30" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>96</v>
       </c>
@@ -2528,13 +2521,22 @@
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
       <c r="Y31" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA31">
+        <v>250</v>
+      </c>
+      <c r="Z31" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA31" s="16">
         <v>1068</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB31" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC31" s="16">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>102</v>
       </c>
@@ -2577,13 +2579,22 @@
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
       <c r="Y32" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA32">
+        <v>250</v>
+      </c>
+      <c r="Z32" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA32" s="16">
         <v>1713.47</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB32" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>1713.47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>108</v>
       </c>
@@ -2626,13 +2637,22 @@
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="Y33" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA33">
+        <v>250</v>
+      </c>
+      <c r="Z33" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA33" s="16">
         <v>29.12</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB33" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC33" s="16">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>112</v>
       </c>
@@ -2675,13 +2695,22 @@
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="Y34" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA34">
+        <v>250</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA34" s="16">
         <v>1500</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC34" s="16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>118</v>
       </c>
@@ -2724,13 +2753,22 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="Y35" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA35">
+        <v>250</v>
+      </c>
+      <c r="Z35" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA35" s="16">
         <v>377.05</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB35" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC35" s="16">
+        <v>377.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>124</v>
       </c>
@@ -2773,13 +2811,22 @@
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="Y36" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA36">
+        <v>250</v>
+      </c>
+      <c r="Z36" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA36" s="16">
         <v>2100</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC36" s="16">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>127</v>
       </c>
@@ -2822,13 +2869,22 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="Y37" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z37" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA37" s="16">
+        <v>931</v>
+      </c>
+      <c r="AB37" t="s">
         <v>258</v>
       </c>
-      <c r="AA37">
+      <c r="AC37" s="16">
         <v>931</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>131</v>
       </c>
@@ -2871,13 +2927,10 @@
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
       <c r="Y38" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA38">
-        <v>264.33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>134</v>
       </c>
@@ -2920,13 +2973,22 @@
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
       <c r="Y39" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA39">
+        <v>250</v>
+      </c>
+      <c r="Z39" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA39" s="16">
         <v>1346.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB39" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC39" s="16">
+        <v>1346.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>137</v>
       </c>
@@ -2969,13 +3031,22 @@
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="Y40" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA40">
+        <v>250</v>
+      </c>
+      <c r="Z40" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA40" s="16">
         <v>2386.21</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB40" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC40" s="16">
+        <v>2386.21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>140</v>
       </c>
@@ -3018,13 +3089,22 @@
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
       <c r="Y41" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA41">
+        <v>250</v>
+      </c>
+      <c r="Z41" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA41" s="16">
         <v>1229.54</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB41" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC41" s="16">
+        <v>1229.54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>143</v>
       </c>
@@ -3067,20 +3147,29 @@
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
       <c r="Y42" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA42">
+        <v>250</v>
+      </c>
+      <c r="Z42" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA42" s="16">
         <v>942</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB42" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC42" s="16">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W44" s="13" t="s">
         <v>149</v>
       </c>
       <c r="X44" s="13"/>
     </row>
-    <row r="45" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>150</v>
       </c>
@@ -3123,13 +3212,22 @@
       <c r="V45" s="12"/>
       <c r="W45" s="12"/>
       <c r="Y45" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA45">
+        <v>250</v>
+      </c>
+      <c r="Z45" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA45" s="16">
         <v>1848.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB45" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC45" s="16">
+        <v>1848.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>153</v>
       </c>
@@ -3172,13 +3270,22 @@
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
       <c r="Y46" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA46">
+        <v>250</v>
+      </c>
+      <c r="Z46" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA46" s="16">
         <v>43.68</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB46" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC46" s="16">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>156</v>
       </c>
@@ -3220,14 +3327,11 @@
       <c r="U47" s="12"/>
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
-      <c r="Z47" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>162</v>
       </c>
@@ -3270,13 +3374,22 @@
       <c r="V48" s="12"/>
       <c r="W48" s="12"/>
       <c r="Y48" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA48">
+        <v>250</v>
+      </c>
+      <c r="Z48" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA48" s="16">
         <v>977.18</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB48" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC48" s="16">
+        <v>977.18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>165</v>
       </c>
@@ -3319,13 +3432,22 @@
       <c r="V49" s="12"/>
       <c r="W49" s="12"/>
       <c r="Y49" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA49">
+        <v>250</v>
+      </c>
+      <c r="Z49" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA49" s="16">
         <v>43.68</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB49" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC49" s="16">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>168</v>
       </c>
@@ -3368,13 +3490,22 @@
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
       <c r="Y50" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA50">
+        <v>250</v>
+      </c>
+      <c r="Z50" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA50" s="16">
         <v>1872</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB50" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC50" s="16">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>171</v>
       </c>
@@ -3417,13 +3548,22 @@
       <c r="V51" s="12"/>
       <c r="W51" s="12"/>
       <c r="Y51" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA51">
+        <v>250</v>
+      </c>
+      <c r="Z51" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA51" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB51" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC51" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>174</v>
       </c>
@@ -3466,13 +3606,22 @@
       <c r="V52" s="12"/>
       <c r="W52" s="12"/>
       <c r="Y52" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA52">
+        <v>250</v>
+      </c>
+      <c r="Z52" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA52" s="16">
         <v>2219.8000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB52" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC52" s="16">
+        <v>2219.8000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>177</v>
       </c>
@@ -3515,13 +3664,22 @@
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
       <c r="Y53" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA53">
+        <v>250</v>
+      </c>
+      <c r="Z53" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA53" s="16">
         <v>1595</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB53" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC53" s="16">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>180</v>
       </c>
@@ -3563,8 +3721,11 @@
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
-    </row>
-    <row r="55" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>183</v>
       </c>
@@ -3607,13 +3768,22 @@
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
       <c r="Y55" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA55">
+        <v>250</v>
+      </c>
+      <c r="Z55" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA55" s="16">
         <v>2500</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB55" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC55" s="16">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>186</v>
       </c>
@@ -3656,13 +3826,22 @@
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
       <c r="Y56" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA56">
+        <v>250</v>
+      </c>
+      <c r="Z56" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA56" s="16">
         <v>2771.09</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB56" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC56" s="16">
+        <v>2771.09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>189</v>
       </c>
@@ -3705,13 +3884,22 @@
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
       <c r="Y57" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA57">
+        <v>250</v>
+      </c>
+      <c r="Z57" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA57" s="16">
         <v>1621</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB57" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC57" s="16">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>192</v>
       </c>
@@ -3754,13 +3942,22 @@
       <c r="V58" s="12"/>
       <c r="W58" s="12"/>
       <c r="Y58" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA58">
+        <v>250</v>
+      </c>
+      <c r="Z58" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA58" s="16">
         <v>1665</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB58" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC58" s="16">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>195</v>
       </c>
@@ -3803,13 +4000,22 @@
       <c r="V59" s="12"/>
       <c r="W59" s="12"/>
       <c r="Y59" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA59">
+        <v>250</v>
+      </c>
+      <c r="Z59" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA59" s="16">
         <v>1794</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB59" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC59" s="16">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>201</v>
       </c>
@@ -3851,21 +4057,18 @@
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
       <c r="W60" s="12"/>
-      <c r="Z60" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W62" s="13" t="s">
         <v>204</v>
       </c>
       <c r="X62" s="13"/>
     </row>
-    <row r="63" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>205</v>
       </c>
@@ -3908,13 +4111,22 @@
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
       <c r="Y63" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA63">
+        <v>250</v>
+      </c>
+      <c r="Z63" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA63" s="16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB63" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC63" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>211</v>
       </c>
@@ -3957,13 +4169,22 @@
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
       <c r="Y64" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z64" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="AA64">
+      <c r="AA64" s="16">
         <v>784</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB64" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC64" s="16">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>218</v>
       </c>
@@ -4006,13 +4227,22 @@
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
       <c r="Y65" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z65" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="AA65">
+      <c r="AA65" s="16">
         <v>2247</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB65" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC65" s="16">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>224</v>
       </c>
@@ -4055,13 +4285,22 @@
       <c r="V66" s="12"/>
       <c r="W66" s="12"/>
       <c r="Y66" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA66">
+        <v>250</v>
+      </c>
+      <c r="Z66" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA66" s="16">
         <v>888</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB66" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC66" s="16">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>231</v>
       </c>
@@ -4104,13 +4343,22 @@
       <c r="V67" s="12"/>
       <c r="W67" s="12"/>
       <c r="Y67" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA67">
+        <v>250</v>
+      </c>
+      <c r="Z67" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA67" s="16">
         <v>44</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB67" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC67" s="16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>235</v>
       </c>
@@ -4153,13 +4401,22 @@
       <c r="V68" s="12"/>
       <c r="W68" s="12"/>
       <c r="Y68" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA68">
+        <v>250</v>
+      </c>
+      <c r="Z68" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA68" s="16">
         <v>2220</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB68" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC68" s="16">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>241</v>
       </c>
@@ -4201,23 +4458,20 @@
       <c r="U69" s="12"/>
       <c r="V69" s="12"/>
       <c r="W69" s="12"/>
-      <c r="Z69" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
     </row>
-    <row r="71" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:28" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:29" ht="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:29" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="U72" s="14"/>
     </row>
-    <row r="73" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="8" t="s">
         <v>246</v>
       </c>
@@ -4239,7 +4493,7 @@
       <c r="N73" s="9"/>
       <c r="U73" s="14"/>
     </row>
-    <row r="74" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="8" t="s">
         <v>247</v>
       </c>
@@ -4259,11 +4513,11 @@
       <c r="N74" s="8"/>
       <c r="U74" s="14"/>
     </row>
-    <row r="75" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:29" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="U75" s="14"/>
     </row>
-    <row r="76" spans="1:28" ht="266.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:29" ht="266.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W77" s="13" t="s">
         <v>248</v>
       </c>
